--- a/data/gastos.xlsx
+++ b/data/gastos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45956.56062929736</v>
+        <v>45956.56062929398</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -474,6 +474,24 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>uber</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45957.86045812783</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>gasto</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>mercado</t>
         </is>
       </c>
     </row>

--- a/data/gastos.xlsx
+++ b/data/gastos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45957.86045812783</v>
+        <v>45957.860458125</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -492,6 +492,114 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>mercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45957.91253304398</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>gasto</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>mercado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45957.9173341088</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>gasto</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>uber</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45957.95365135417</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gasto</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ifood</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45957.95441005787</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gasto</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ifood</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45957.96138121527</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>gasto</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>uber</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45957.96550251287</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>gasto</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ifood</t>
         </is>
       </c>
     </row>
